--- a/Assets/Data/ExcelData/Localization.xlsx
+++ b/Assets/Data/ExcelData/Localization.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_Game_Dev\C14samaTemplate-Unity2021\Assets\Data\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_Game_Dev\GlobalGameJam2025\Assets\Data\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C4924A-BFFB-4F5F-B50F-27839AE3C6F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B88AD5-1AD9-4DE3-8FAF-51E9ABBC38D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="73">
   <si>
     <t>Key</t>
   </si>
@@ -107,6 +107,201 @@
   </si>
   <si>
     <t>静音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BubbleSync</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泡泡同步率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlowNew</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新吹泡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blow New Bubble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bubble Sync Rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BubbleIntro1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BubbleIntro2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BubbleIntro3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BubbleIntro4</t>
+  </si>
+  <si>
+    <t>通过塑造泡泡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜入他人的潜意识，最终解开心结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你是一位织泡者——</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天也有很多客人到访</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You are a bubble weaver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You need to shape bubbles....</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Many Guests come today</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To heal people in the subconsciousness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气球~~~~我要更多的气球！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啊！！破掉了。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你可以给我一个气球吗！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想要一直一直拥有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以吗？把一切都给我吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（观察到她的内心有巨大的空缺，给她制作一个巨大的泡泡吧）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（用鼠标挤压泡泡的中心来制作大泡泡）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BubbleGirlIntro1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BubbleGirlIntro2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BubbleGirlIntro3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BubbleGirlIntro4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BubbleGirlIntro5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BubbleGirlIntro6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BubbleGirlIntro7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BubbleGirlEnd1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢谢你，我才意识到我只不过是缺少这样的爱意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这样大的气球，我还是第一次见！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比我还要大好多好多！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BubbleGirlEnd2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BubbleGirlEnd3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（女孩把上一个紧握着的的气球砸得粉碎）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BubbleGirlEnd4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryIntro1</t>
+  </si>
+  <si>
+    <t>StoryIntro2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryIntro3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爸爸什么时候才能回来啊。。。</t>
+  </si>
+  <si>
+    <t>我还想听他给我讲故事</t>
+  </si>
+  <si>
+    <t>我很喜欢星星月亮与魔法的童话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryEnd1</t>
+  </si>
+  <si>
+    <t>StoryEnd2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>或许我会去月球上找到我的答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你诉说的故事也很动人。。。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -114,7 +309,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +339,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -162,12 +363,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -177,9 +381,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{F0AA6F2E-9FD2-4A2F-81F7-F64B4146C5F3}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -487,7 +698,7 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="33" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" style="1" customWidth="1"/>
@@ -495,7 +706,7 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,7 +723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -526,7 +737,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -549,13 +760,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="33" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" style="1" customWidth="1"/>
@@ -563,7 +774,7 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -580,7 +791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -594,7 +805,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -608,7 +819,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -622,7 +833,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -634,11 +845,319 @@
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="27">
+      <c r="A17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>